--- a/biology/Microbiologie/Streptococcus_agalactiae/Streptococcus_agalactiae.xlsx
+++ b/biology/Microbiologie/Streptococcus_agalactiae/Streptococcus_agalactiae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Streptococcus agalactiae (streptocoque « sans lait ») est une bactérie dont on a reconnu l'implication dans les mammites de la vache dès la fin du XIXe siècle.
 Il s'agit d'un streptocoque du groupe B de Lancefield, qui provoque une hémolyse  β sur la gélose au sang de mouton (certaines souches donnent une hémolyse partielle, d'autres ne sont pas hémolytiques) et qui ne fermente pas l'esculine. Au Gram, il apparaît sous forme de longue chaîne de coques Gram+ (sur un bouillon). Ces caractères permettent de le distinguer d'autres streptocoques responsables de mammites, en particulier Streptococcus dysgalactiae (Lancefield C), Streptococcus uberis (non groupable, fermentant l'esculine) et Enterococcus faecium (Lancefield D, fermentant l'esculine).
